--- a/medicine/Enfance/Thomas_Taylor_(artiste)/Thomas_Taylor_(artiste).xlsx
+++ b/medicine/Enfance/Thomas_Taylor_(artiste)/Thomas_Taylor_(artiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thomas Henry Taylor, né le 22 mai 1973[1] dans le Norfolk, est un écrivain et un illustrateur britannique de livres pour enfants. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thomas Henry Taylor, né le 22 mai 1973 dans le Norfolk, est un écrivain et un illustrateur britannique de livres pour enfants. 
 Taylor a étudié à l'université Anglia Ruskin. 
-Il est notamment connu pour avoir dessiné en 1997 la couverture de la toute première édition britannique de Harry Potter à l'école des sorciers publiée chez Bloomsbury[2] : il est ainsi à l'origine de la première figuration du personnage.
-Il a ensuite écrit et illustré plusieurs livres d'images, à commencer par George and Sophie's Museum Adventure en 1999, ainsi que deux romans pour enfants, Haunters et Dan of the Dead, tous deux publiés en 2012[3].
+Il est notamment connu pour avoir dessiné en 1997 la couverture de la toute première édition britannique de Harry Potter à l'école des sorciers publiée chez Bloomsbury : il est ainsi à l'origine de la première figuration du personnage.
+Il a ensuite écrit et illustré plusieurs livres d'images, à commencer par George and Sophie's Museum Adventure en 1999, ainsi que deux romans pour enfants, Haunters et Dan of the Dead, tous deux publiés en 2012.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Livres illustrés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) George and Sophie's Museum Adventure, 1999
 (en) The Chocolate Biscuit Tree, 2001
@@ -554,14 +568,87 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Dan and the Dead
-(en) Dan and the Dead, 2012
-(en) Dan and the Caverns of Bone, 2013
-Série Les chroniques de Sinistre-sur-mer
-Malamander, Seuil Jeunesse, 2020 ((en) Malamander, 2019), trad. Amélie Sarn  (ISBN 979-10-235-1212-0)
-Gargantis, Seuil Jeunesse, 2021 ((en) Gargantis, 2020), trad. Amélie Sarn  (ISBN 979-10-235-1216-8)
-Romans indépendants
-(en) Haunters, 2012</t>
+          <t>Série Dan and the Dead</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) Dan and the Dead, 2012
+(en) Dan and the Caverns of Bone, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Thomas_Taylor_(artiste)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thomas_Taylor_(artiste)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Fictions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Les chroniques de Sinistre-sur-mer</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Malamander, Seuil Jeunesse, 2020 ((en) Malamander, 2019), trad. Amélie Sarn  (ISBN 979-10-235-1212-0)
+Gargantis, Seuil Jeunesse, 2021 ((en) Gargantis, 2020), trad. Amélie Sarn  (ISBN 979-10-235-1216-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Thomas_Taylor_(artiste)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thomas_Taylor_(artiste)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Fictions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Haunters, 2012</t>
         </is>
       </c>
     </row>
